--- a/Difference_between_obs_and_smi_Drainage/Drainage_Estimation Error.xlsx
+++ b/Difference_between_obs_and_smi_Drainage/Drainage_Estimation Error.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Simulation_Final</t>
+          <t>Drain_Coe1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,10 +470,10 @@
         <v>0.34</v>
       </c>
       <c r="D2" t="n">
-        <v>0.277928</v>
+        <v>0.294053</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06207200000000002</v>
+        <v>-0.04594700000000002</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         <v>1.64</v>
       </c>
       <c r="D3" t="n">
-        <v>2.148338</v>
+        <v>2.162812</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5083379999999997</v>
+        <v>0.5228120000000001</v>
       </c>
     </row>
     <row r="4">
@@ -504,10 +504,10 @@
         <v>0.48</v>
       </c>
       <c r="D4" t="n">
-        <v>0.389006</v>
+        <v>0.393795</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09099399999999996</v>
+        <v>-0.08620499999999998</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         <v>0.34</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112014</v>
+        <v>0.133686</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.227986</v>
+        <v>-0.206314</v>
       </c>
     </row>
     <row r="6">
@@ -708,10 +708,10 @@
         <v>0.16</v>
       </c>
       <c r="D16" t="n">
-        <v>0.541998</v>
+        <v>0.555477</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3819979999999999</v>
+        <v>0.395477</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         <v>5.66</v>
       </c>
       <c r="D19" t="n">
-        <v>5.67007</v>
+        <v>5.693049</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0100699999999998</v>
+        <v>0.03304900000000011</v>
       </c>
     </row>
     <row r="20">
@@ -776,10 +776,10 @@
         <v>2.67</v>
       </c>
       <c r="D20" t="n">
-        <v>3.584194</v>
+        <v>3.657221</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9141940000000002</v>
+        <v>0.9872210000000003</v>
       </c>
     </row>
     <row r="21">
@@ -793,10 +793,10 @@
         <v>8.98</v>
       </c>
       <c r="D21" t="n">
-        <v>10.42136</v>
+        <v>10.451508</v>
       </c>
       <c r="E21" t="n">
-        <v>1.44136</v>
+        <v>1.471508</v>
       </c>
     </row>
     <row r="22">
@@ -810,10 +810,10 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.921207</v>
+        <v>0.926696</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1012069999999999</v>
+        <v>0.1066959999999999</v>
       </c>
     </row>
     <row r="23">
@@ -827,10 +827,10 @@
         <v>0.36</v>
       </c>
       <c r="D23" t="n">
-        <v>1.227103</v>
+        <v>1.274964</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8671030000000001</v>
+        <v>0.914964</v>
       </c>
     </row>
     <row r="24">
@@ -844,10 +844,10 @@
         <v>1.58</v>
       </c>
       <c r="D24" t="n">
-        <v>0.898568</v>
+        <v>0.899594</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.681432</v>
+        <v>-0.6804060000000001</v>
       </c>
     </row>
     <row r="25">
@@ -861,10 +861,10 @@
         <v>1.81</v>
       </c>
       <c r="D25" t="n">
-        <v>3.17407</v>
+        <v>3.260369</v>
       </c>
       <c r="E25" t="n">
-        <v>1.36407</v>
+        <v>1.450369</v>
       </c>
     </row>
     <row r="26">
@@ -878,10 +878,10 @@
         <v>5.16</v>
       </c>
       <c r="D26" t="n">
-        <v>7.104167</v>
+        <v>7.127301</v>
       </c>
       <c r="E26" t="n">
-        <v>1.944167</v>
+        <v>1.967301</v>
       </c>
     </row>
     <row r="27">
@@ -895,10 +895,10 @@
         <v>0.5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.290469</v>
+        <v>0.314793</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.209531</v>
+        <v>-0.185207</v>
       </c>
     </row>
     <row r="28">
@@ -912,10 +912,10 @@
         <v>0.05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.076691</v>
+        <v>0.079363</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02669099999999999</v>
+        <v>0.029363</v>
       </c>
     </row>
     <row r="29">
@@ -997,10 +997,10 @@
         <v>0.61</v>
       </c>
       <c r="D33" t="n">
-        <v>5.14083</v>
+        <v>5.823098</v>
       </c>
       <c r="E33" t="n">
-        <v>4.53083</v>
+        <v>5.213098</v>
       </c>
     </row>
     <row r="34">
@@ -1014,10 +1014,10 @@
         <v>6.16</v>
       </c>
       <c r="D34" t="n">
-        <v>4.268064</v>
+        <v>4.275508</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.891936</v>
+        <v>-1.884492</v>
       </c>
     </row>
     <row r="35">
@@ -1031,10 +1031,10 @@
         <v>1.21</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242463</v>
+        <v>0.242529</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.967537</v>
+        <v>-0.967471</v>
       </c>
     </row>
     <row r="36">
@@ -1167,10 +1167,10 @@
         <v>0.52</v>
       </c>
       <c r="D43" t="n">
-        <v>2.601497</v>
+        <v>3.295109</v>
       </c>
       <c r="E43" t="n">
-        <v>2.081497</v>
+        <v>2.775109</v>
       </c>
     </row>
     <row r="44">
@@ -1184,10 +1184,10 @@
         <v>0.37</v>
       </c>
       <c r="D44" t="n">
-        <v>0.493986</v>
+        <v>0.497148</v>
       </c>
       <c r="E44" t="n">
-        <v>0.123986</v>
+        <v>0.127148</v>
       </c>
     </row>
     <row r="45">
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.039675</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.039675</v>
       </c>
     </row>
     <row r="46">
@@ -1218,10 +1218,10 @@
         <v>8.029999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>10.674723</v>
+        <v>10.851565</v>
       </c>
       <c r="E46" t="n">
-        <v>2.644723000000001</v>
+        <v>2.821565</v>
       </c>
     </row>
     <row r="47">
@@ -1235,10 +1235,10 @@
         <v>2.1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.387879</v>
+        <v>0.388459</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.712121</v>
+        <v>-1.711541</v>
       </c>
     </row>
     <row r="48">
@@ -1286,10 +1286,10 @@
         <v>2.36</v>
       </c>
       <c r="D50" t="n">
-        <v>2.482003</v>
+        <v>2.573503</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1220030000000003</v>
+        <v>0.2135030000000002</v>
       </c>
     </row>
     <row r="51">
@@ -1303,10 +1303,10 @@
         <v>1.63</v>
       </c>
       <c r="D51" t="n">
-        <v>3.136487</v>
+        <v>3.176499</v>
       </c>
       <c r="E51" t="n">
-        <v>1.506487</v>
+        <v>1.546499</v>
       </c>
     </row>
     <row r="52">
@@ -1320,10 +1320,10 @@
         <v>12.55</v>
       </c>
       <c r="D52" t="n">
-        <v>16.245571</v>
+        <v>16.274518</v>
       </c>
       <c r="E52" t="n">
-        <v>3.695571000000001</v>
+        <v>3.724518</v>
       </c>
     </row>
     <row r="53">
@@ -1337,10 +1337,10 @@
         <v>4.69</v>
       </c>
       <c r="D53" t="n">
-        <v>6.821569</v>
+        <v>6.847087</v>
       </c>
       <c r="E53" t="n">
-        <v>2.131569</v>
+        <v>2.157087</v>
       </c>
     </row>
     <row r="54">
@@ -1354,10 +1354,10 @@
         <v>3.56</v>
       </c>
       <c r="D54" t="n">
-        <v>5.101174</v>
+        <v>5.161412</v>
       </c>
       <c r="E54" t="n">
-        <v>1.541174</v>
+        <v>1.601412</v>
       </c>
     </row>
     <row r="55">
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.388435</v>
+        <v>0.49129</v>
       </c>
       <c r="E56" t="n">
-        <v>0.388435</v>
+        <v>0.49129</v>
       </c>
     </row>
     <row r="57">
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1.007775</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1.007775</v>
       </c>
     </row>
     <row r="71">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3.16558</v>
+        <v>3.378839</v>
       </c>
       <c r="E71" t="n">
-        <v>3.16558</v>
+        <v>3.378839</v>
       </c>
     </row>
     <row r="72">
@@ -1711,10 +1711,10 @@
         <v>3.68</v>
       </c>
       <c r="D75" t="n">
-        <v>12.103849</v>
+        <v>12.464308</v>
       </c>
       <c r="E75" t="n">
-        <v>8.423849000000001</v>
+        <v>8.784308000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1728,10 +1728,10 @@
         <v>3.32</v>
       </c>
       <c r="D76" t="n">
-        <v>4.499122</v>
+        <v>4.606458</v>
       </c>
       <c r="E76" t="n">
-        <v>1.179122</v>
+        <v>1.286458</v>
       </c>
     </row>
     <row r="77">
@@ -1745,10 +1745,10 @@
         <v>0.51</v>
       </c>
       <c r="D77" t="n">
-        <v>0.883093</v>
+        <v>0.9678020000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.373093</v>
+        <v>0.457802</v>
       </c>
     </row>
     <row r="78">
@@ -1762,10 +1762,10 @@
         <v>2.56</v>
       </c>
       <c r="D78" t="n">
-        <v>5.2669</v>
+        <v>5.40577</v>
       </c>
       <c r="E78" t="n">
-        <v>2.7069</v>
+        <v>2.84577</v>
       </c>
     </row>
     <row r="79">
@@ -1779,10 +1779,10 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="n">
-        <v>1.545257</v>
+        <v>1.643474</v>
       </c>
       <c r="E79" t="n">
-        <v>1.105257</v>
+        <v>1.203474</v>
       </c>
     </row>
     <row r="80">
@@ -2391,10 +2391,10 @@
         <v>0.19</v>
       </c>
       <c r="D115" t="n">
-        <v>4.223959</v>
+        <v>6.165587</v>
       </c>
       <c r="E115" t="n">
-        <v>4.033958999999999</v>
+        <v>5.975587</v>
       </c>
     </row>
     <row r="116">
@@ -2408,10 +2408,10 @@
         <v>18.35</v>
       </c>
       <c r="D116" t="n">
-        <v>30.397347</v>
+        <v>30.40994</v>
       </c>
       <c r="E116" t="n">
-        <v>12.047347</v>
+        <v>12.05994</v>
       </c>
     </row>
     <row r="117">
@@ -2425,10 +2425,10 @@
         <v>13.36</v>
       </c>
       <c r="D117" t="n">
-        <v>13.849484</v>
+        <v>13.850419</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4894840000000009</v>
+        <v>0.490419000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2459,10 +2459,10 @@
         <v>0.02</v>
       </c>
       <c r="D119" t="n">
-        <v>1.731805</v>
+        <v>1.773284</v>
       </c>
       <c r="E119" t="n">
-        <v>1.711805</v>
+        <v>1.753284</v>
       </c>
     </row>
     <row r="120">
@@ -2476,10 +2476,10 @@
         <v>4.32</v>
       </c>
       <c r="D120" t="n">
-        <v>6.290472</v>
+        <v>6.300137</v>
       </c>
       <c r="E120" t="n">
-        <v>1.970472</v>
+        <v>1.980137</v>
       </c>
     </row>
     <row r="121">
@@ -2493,10 +2493,10 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.512305</v>
+        <v>0.513161</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.427695</v>
+        <v>-0.4268390000000001</v>
       </c>
     </row>
     <row r="122">
@@ -2544,10 +2544,10 @@
         <v>0.02</v>
       </c>
       <c r="D124" t="n">
-        <v>0.852218</v>
+        <v>0.922146</v>
       </c>
       <c r="E124" t="n">
-        <v>0.832218</v>
+        <v>0.902146</v>
       </c>
     </row>
     <row r="125">
@@ -2578,10 +2578,10 @@
         <v>0.98</v>
       </c>
       <c r="D126" t="n">
-        <v>4.081309</v>
+        <v>4.135266</v>
       </c>
       <c r="E126" t="n">
-        <v>3.101309</v>
+        <v>3.155266</v>
       </c>
     </row>
     <row r="127">
@@ -2731,10 +2731,10 @@
         <v>0.04</v>
       </c>
       <c r="D135" t="n">
-        <v>0.903057</v>
+        <v>0.396321</v>
       </c>
       <c r="E135" t="n">
-        <v>0.863057</v>
+        <v>0.356321</v>
       </c>
     </row>
     <row r="136">
@@ -2748,10 +2748,10 @@
         <v>0.01</v>
       </c>
       <c r="D136" t="n">
-        <v>3.867051</v>
+        <v>3.875547</v>
       </c>
       <c r="E136" t="n">
-        <v>3.857051</v>
+        <v>3.865547</v>
       </c>
     </row>
     <row r="137">
@@ -2816,10 +2816,10 @@
         <v>0.01</v>
       </c>
       <c r="D140" t="n">
-        <v>3.620571</v>
+        <v>3.630544</v>
       </c>
       <c r="E140" t="n">
-        <v>3.610571</v>
+        <v>3.620544</v>
       </c>
     </row>
     <row r="141">
@@ -2884,10 +2884,10 @@
         <v>0.02</v>
       </c>
       <c r="D144" t="n">
-        <v>3.471865</v>
+        <v>3.226617</v>
       </c>
       <c r="E144" t="n">
-        <v>3.451865</v>
+        <v>3.206617</v>
       </c>
     </row>
     <row r="145">
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.182631</v>
+        <v>0.188633</v>
       </c>
       <c r="E145" t="n">
-        <v>0.182631</v>
+        <v>0.188633</v>
       </c>
     </row>
     <row r="146">
@@ -2918,10 +2918,10 @@
         <v>5.33</v>
       </c>
       <c r="D146" t="n">
-        <v>24.502078</v>
+        <v>24.403999</v>
       </c>
       <c r="E146" t="n">
-        <v>19.172078</v>
+        <v>19.073999</v>
       </c>
     </row>
     <row r="147">
@@ -2935,10 +2935,10 @@
         <v>2.28</v>
       </c>
       <c r="D147" t="n">
-        <v>4.710207</v>
+        <v>4.714603</v>
       </c>
       <c r="E147" t="n">
-        <v>2.430207</v>
+        <v>2.434603000000001</v>
       </c>
     </row>
     <row r="148">
@@ -2952,10 +2952,10 @@
         <v>3.36</v>
       </c>
       <c r="D148" t="n">
-        <v>2.685858</v>
+        <v>2.687558</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.6741419999999998</v>
+        <v>-0.6724419999999998</v>
       </c>
     </row>
     <row r="149">
@@ -2986,10 +2986,10 @@
         <v>0.05</v>
       </c>
       <c r="D150" t="n">
-        <v>1.490541</v>
+        <v>1.498239</v>
       </c>
       <c r="E150" t="n">
-        <v>1.440541</v>
+        <v>1.448239</v>
       </c>
     </row>
     <row r="151">
@@ -3564,10 +3564,10 @@
         <v>6.42</v>
       </c>
       <c r="D184" t="n">
-        <v>11.434242</v>
+        <v>11.212309</v>
       </c>
       <c r="E184" t="n">
-        <v>5.014241999999999</v>
+        <v>4.792308999999999</v>
       </c>
     </row>
     <row r="185">
@@ -4057,10 +4057,10 @@
         <v>5.76</v>
       </c>
       <c r="D213" t="n">
-        <v>29.945825</v>
+        <v>29.867471</v>
       </c>
       <c r="E213" t="n">
-        <v>24.185825</v>
+        <v>24.107471</v>
       </c>
     </row>
     <row r="214">
@@ -4193,10 +4193,10 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>1.687905</v>
+        <v>1.778358</v>
       </c>
       <c r="E221" t="n">
-        <v>1.687905</v>
+        <v>1.778358</v>
       </c>
     </row>
     <row r="222">
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.503845</v>
+        <v>0.51622</v>
       </c>
       <c r="E222" t="n">
-        <v>0.503845</v>
+        <v>0.51622</v>
       </c>
     </row>
     <row r="223">
@@ -4278,10 +4278,10 @@
         <v>1.78</v>
       </c>
       <c r="D226" t="n">
-        <v>5.81249</v>
+        <v>5.84751</v>
       </c>
       <c r="E226" t="n">
-        <v>4.03249</v>
+        <v>4.06751</v>
       </c>
     </row>
     <row r="227">
@@ -4295,10 +4295,10 @@
         <v>0.52</v>
       </c>
       <c r="D227" t="n">
-        <v>0.185441</v>
+        <v>0.190078</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.334559</v>
+        <v>-0.329922</v>
       </c>
     </row>
     <row r="228">
@@ -4346,10 +4346,10 @@
         <v>6.24</v>
       </c>
       <c r="D230" t="n">
-        <v>8.928452999999999</v>
+        <v>8.944974999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>2.688452999999999</v>
+        <v>2.704974999999999</v>
       </c>
     </row>
     <row r="231">
@@ -4363,10 +4363,10 @@
         <v>0.55</v>
       </c>
       <c r="D231" t="n">
-        <v>0.060408</v>
+        <v>0.07933900000000001</v>
       </c>
       <c r="E231" t="n">
-        <v>-0.489592</v>
+        <v>-0.4706610000000001</v>
       </c>
     </row>
     <row r="232">
@@ -4431,10 +4431,10 @@
         <v>0.11</v>
       </c>
       <c r="D235" t="n">
-        <v>0.664478</v>
+        <v>0.736672</v>
       </c>
       <c r="E235" t="n">
-        <v>0.554478</v>
+        <v>0.626672</v>
       </c>
     </row>
     <row r="236">
@@ -4465,10 +4465,10 @@
         <v>4.47</v>
       </c>
       <c r="D237" t="n">
-        <v>7.616351</v>
+        <v>7.655008</v>
       </c>
       <c r="E237" t="n">
-        <v>3.146351</v>
+        <v>3.185008000000001</v>
       </c>
     </row>
     <row r="238">
@@ -4482,10 +4482,10 @@
         <v>2.96</v>
       </c>
       <c r="D238" t="n">
-        <v>2.354085</v>
+        <v>2.362305</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.605915</v>
+        <v>-0.5976949999999999</v>
       </c>
     </row>
     <row r="239">
@@ -4550,10 +4550,10 @@
         <v>12.1</v>
       </c>
       <c r="D242" t="n">
-        <v>15.767978</v>
+        <v>15.800219</v>
       </c>
       <c r="E242" t="n">
-        <v>3.667978</v>
+        <v>3.700219000000001</v>
       </c>
     </row>
     <row r="243">
@@ -4567,10 +4567,10 @@
         <v>5.53</v>
       </c>
       <c r="D243" t="n">
-        <v>4.765124</v>
+        <v>4.798935</v>
       </c>
       <c r="E243" t="n">
-        <v>-0.7648760000000001</v>
+        <v>-0.7310650000000001</v>
       </c>
     </row>
     <row r="244">
@@ -4584,10 +4584,10 @@
         <v>2.1</v>
       </c>
       <c r="D244" t="n">
-        <v>4.858312</v>
+        <v>4.893027</v>
       </c>
       <c r="E244" t="n">
-        <v>2.758312</v>
+        <v>2.793027</v>
       </c>
     </row>
     <row r="245">
@@ -4601,10 +4601,10 @@
         <v>8.42</v>
       </c>
       <c r="D245" t="n">
-        <v>6.527809</v>
+        <v>6.539963</v>
       </c>
       <c r="E245" t="n">
-        <v>-1.892191</v>
+        <v>-1.880037</v>
       </c>
     </row>
     <row r="246">
@@ -4618,10 +4618,10 @@
         <v>5.01</v>
       </c>
       <c r="D246" t="n">
-        <v>5.774118</v>
+        <v>5.788633</v>
       </c>
       <c r="E246" t="n">
-        <v>0.7641179999999999</v>
+        <v>0.7786330000000001</v>
       </c>
     </row>
     <row r="247">
@@ -4635,10 +4635,10 @@
         <v>2.76</v>
       </c>
       <c r="D247" t="n">
-        <v>2.503654</v>
+        <v>2.510722</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.2563460000000002</v>
+        <v>-0.2492780000000003</v>
       </c>
     </row>
     <row r="248">
@@ -4652,10 +4652,10 @@
         <v>7.02</v>
       </c>
       <c r="D248" t="n">
-        <v>9.863575000000001</v>
+        <v>9.9222</v>
       </c>
       <c r="E248" t="n">
-        <v>2.843575</v>
+        <v>2.9022</v>
       </c>
     </row>
     <row r="249">
@@ -4669,10 +4669,10 @@
         <v>6.81</v>
       </c>
       <c r="D249" t="n">
-        <v>4.854191</v>
+        <v>4.869345</v>
       </c>
       <c r="E249" t="n">
-        <v>-1.955809</v>
+        <v>-1.940655</v>
       </c>
     </row>
     <row r="250">
@@ -4686,10 +4686,10 @@
         <v>0.05</v>
       </c>
       <c r="D250" t="n">
-        <v>0.295589</v>
+        <v>0.296025</v>
       </c>
       <c r="E250" t="n">
-        <v>0.245589</v>
+        <v>0.246025</v>
       </c>
     </row>
     <row r="251">
@@ -4703,10 +4703,10 @@
         <v>20.04</v>
       </c>
       <c r="D251" t="n">
-        <v>20.748174</v>
+        <v>20.748304</v>
       </c>
       <c r="E251" t="n">
-        <v>0.7081739999999996</v>
+        <v>0.7083040000000018</v>
       </c>
     </row>
     <row r="252">
@@ -4720,10 +4720,10 @@
         <v>0.15</v>
       </c>
       <c r="D252" t="n">
-        <v>0.050332</v>
+        <v>0.06794699999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.09966799999999999</v>
+        <v>-0.082053</v>
       </c>
     </row>
     <row r="253">
@@ -4737,10 +4737,10 @@
         <v>2.54</v>
       </c>
       <c r="D253" t="n">
-        <v>3.32122</v>
+        <v>3.359259</v>
       </c>
       <c r="E253" t="n">
-        <v>0.7812199999999998</v>
+        <v>0.8192589999999997</v>
       </c>
     </row>
     <row r="254">
@@ -4754,10 +4754,10 @@
         <v>0.76</v>
       </c>
       <c r="D254" t="n">
-        <v>0.08375299999999999</v>
+        <v>0.084859</v>
       </c>
       <c r="E254" t="n">
-        <v>-0.676247</v>
+        <v>-0.675141</v>
       </c>
     </row>
     <row r="255">
@@ -4771,10 +4771,10 @@
         <v>2.81</v>
       </c>
       <c r="D255" t="n">
-        <v>3.90466</v>
+        <v>3.926014</v>
       </c>
       <c r="E255" t="n">
-        <v>1.09466</v>
+        <v>1.116014</v>
       </c>
     </row>
     <row r="256">
@@ -4788,10 +4788,10 @@
         <v>0.62</v>
       </c>
       <c r="D256" t="n">
-        <v>0.425416</v>
+        <v>0.42715</v>
       </c>
       <c r="E256" t="n">
-        <v>-0.194584</v>
+        <v>-0.19285</v>
       </c>
     </row>
     <row r="257">
@@ -4805,10 +4805,10 @@
         <v>0.1</v>
       </c>
       <c r="D257" t="n">
-        <v>0.034171</v>
+        <v>0.044073</v>
       </c>
       <c r="E257" t="n">
-        <v>-0.065829</v>
+        <v>-0.055927</v>
       </c>
     </row>
     <row r="258">
@@ -4856,10 +4856,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D260" t="n">
-        <v>1.238948</v>
+        <v>1.252469</v>
       </c>
       <c r="E260" t="n">
-        <v>0.6789479999999999</v>
+        <v>0.692469</v>
       </c>
     </row>
     <row r="261">
@@ -4873,10 +4873,10 @@
         <v>6.87</v>
       </c>
       <c r="D261" t="n">
-        <v>8.525651</v>
+        <v>8.534318000000001</v>
       </c>
       <c r="E261" t="n">
-        <v>1.655651</v>
+        <v>1.664318000000001</v>
       </c>
     </row>
     <row r="262">
@@ -4890,10 +4890,10 @@
         <v>1.85</v>
       </c>
       <c r="D262" t="n">
-        <v>1.757652</v>
+        <v>1.760008</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.0923480000000001</v>
+        <v>-0.08999200000000007</v>
       </c>
     </row>
     <row r="263">
@@ -5026,10 +5026,10 @@
         <v>0.61</v>
       </c>
       <c r="D270" t="n">
-        <v>2.959863</v>
+        <v>3.017129</v>
       </c>
       <c r="E270" t="n">
-        <v>2.349863</v>
+        <v>2.407129</v>
       </c>
     </row>
     <row r="271">
@@ -5043,10 +5043,10 @@
         <v>1.4</v>
       </c>
       <c r="D271" t="n">
-        <v>0.397626</v>
+        <v>0.397741</v>
       </c>
       <c r="E271" t="n">
-        <v>-1.002374</v>
+        <v>-1.002259</v>
       </c>
     </row>
     <row r="272">
@@ -5128,10 +5128,10 @@
         <v>0.03</v>
       </c>
       <c r="D276" t="n">
-        <v>0.486835</v>
+        <v>0.612895</v>
       </c>
       <c r="E276" t="n">
-        <v>0.456835</v>
+        <v>0.5828949999999999</v>
       </c>
     </row>
     <row r="277">
@@ -5145,10 +5145,10 @@
         <v>0.44</v>
       </c>
       <c r="D277" t="n">
-        <v>0.58236</v>
+        <v>0.584461</v>
       </c>
       <c r="E277" t="n">
-        <v>0.14236</v>
+        <v>0.144461</v>
       </c>
     </row>
     <row r="278">
@@ -5162,10 +5162,10 @@
         <v>0.24</v>
       </c>
       <c r="D278" t="n">
-        <v>0.495708</v>
+        <v>0.52261</v>
       </c>
       <c r="E278" t="n">
-        <v>0.255708</v>
+        <v>0.28261</v>
       </c>
     </row>
     <row r="279">
@@ -5247,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>0.02827</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>0.02827</v>
       </c>
     </row>
     <row r="284">
@@ -5264,10 +5264,10 @@
         <v>0.01</v>
       </c>
       <c r="D284" t="n">
-        <v>4.416849</v>
+        <v>4.552545</v>
       </c>
       <c r="E284" t="n">
-        <v>4.406849</v>
+        <v>4.542545</v>
       </c>
     </row>
     <row r="285">
@@ -5349,10 +5349,10 @@
         <v>0.1</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>0.015948</v>
       </c>
       <c r="E289" t="n">
-        <v>-0.1</v>
+        <v>-0.084052</v>
       </c>
     </row>
     <row r="290">
@@ -5366,10 +5366,10 @@
         <v>4.21</v>
       </c>
       <c r="D290" t="n">
-        <v>4.518164</v>
+        <v>4.673615</v>
       </c>
       <c r="E290" t="n">
-        <v>0.3081639999999997</v>
+        <v>0.4636149999999999</v>
       </c>
     </row>
     <row r="291">
@@ -5383,10 +5383,10 @@
         <v>0.16</v>
       </c>
       <c r="D291" t="n">
-        <v>0.008156999999999999</v>
+        <v>0.043566</v>
       </c>
       <c r="E291" t="n">
-        <v>-0.151843</v>
+        <v>-0.116434</v>
       </c>
     </row>
     <row r="292">
@@ -5400,10 +5400,10 @@
         <v>0.1</v>
       </c>
       <c r="D292" t="n">
-        <v>0.795018</v>
+        <v>0.837581</v>
       </c>
       <c r="E292" t="n">
-        <v>0.695018</v>
+        <v>0.737581</v>
       </c>
     </row>
     <row r="293">
@@ -5417,10 +5417,10 @@
         <v>2.33</v>
       </c>
       <c r="D293" t="n">
-        <v>2.458044</v>
+        <v>2.470364</v>
       </c>
       <c r="E293" t="n">
-        <v>0.128044</v>
+        <v>0.1403639999999999</v>
       </c>
     </row>
     <row r="294">
@@ -5451,10 +5451,10 @@
         <v>13.23</v>
       </c>
       <c r="D295" t="n">
-        <v>16.244192</v>
+        <v>16.333683</v>
       </c>
       <c r="E295" t="n">
-        <v>3.014192000000001</v>
+        <v>3.103683</v>
       </c>
     </row>
     <row r="296">
@@ -5468,10 +5468,10 @@
         <v>2.62</v>
       </c>
       <c r="D296" t="n">
-        <v>1.230177</v>
+        <v>1.254353</v>
       </c>
       <c r="E296" t="n">
-        <v>-1.389823</v>
+        <v>-1.365647</v>
       </c>
     </row>
     <row r="297">
@@ -5502,10 +5502,10 @@
         <v>12.57</v>
       </c>
       <c r="D298" t="n">
-        <v>15.76169</v>
+        <v>15.794971</v>
       </c>
       <c r="E298" t="n">
-        <v>3.191689999999999</v>
+        <v>3.224971</v>
       </c>
     </row>
     <row r="299">
@@ -5519,10 +5519,10 @@
         <v>8.6</v>
       </c>
       <c r="D299" t="n">
-        <v>8.176917</v>
+        <v>8.178737</v>
       </c>
       <c r="E299" t="n">
-        <v>-0.4230830000000001</v>
+        <v>-0.4212629999999997</v>
       </c>
     </row>
     <row r="300">
@@ -5536,10 +5536,10 @@
         <v>0.26</v>
       </c>
       <c r="D300" t="n">
-        <v>0.06773999999999999</v>
+        <v>0.08695899999999999</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.19226</v>
+        <v>-0.173041</v>
       </c>
     </row>
     <row r="301">
@@ -5553,10 +5553,10 @@
         <v>0.96</v>
       </c>
       <c r="D301" t="n">
-        <v>1.4001</v>
+        <v>1.438594</v>
       </c>
       <c r="E301" t="n">
-        <v>0.4401000000000002</v>
+        <v>0.478594</v>
       </c>
     </row>
     <row r="302">
@@ -5570,10 +5570,10 @@
         <v>3.14</v>
       </c>
       <c r="D302" t="n">
-        <v>3.486999</v>
+        <v>3.508217</v>
       </c>
       <c r="E302" t="n">
-        <v>0.3469989999999998</v>
+        <v>0.368217</v>
       </c>
     </row>
   </sheetData>
